--- a/data/trans_orig/P1409-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>28223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19057</v>
+        <v>19171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41452</v>
+        <v>40133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02703535143901389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01825485087480349</v>
+        <v>0.01836424796694378</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03970702683372541</v>
+        <v>0.03844431609121431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -764,19 +764,19 @@
         <v>35542</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23396</v>
+        <v>24421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49400</v>
+        <v>50500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03180610046881864</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02093666376154</v>
+        <v>0.02185391320265938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04420717687889679</v>
+        <v>0.04519097793698538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -785,19 +785,19 @@
         <v>63766</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50755</v>
+        <v>47650</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82547</v>
+        <v>82564</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02950188123077163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02348241060622136</v>
+        <v>0.02204589862507345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03819149667950751</v>
+        <v>0.03819927303151927</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1015712</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1002483</v>
+        <v>1003802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1024878</v>
+        <v>1024764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9729646485609861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9602929731662746</v>
+        <v>0.9615556839087857</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9817451491251964</v>
+        <v>0.9816357520330562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>997</v>
@@ -835,19 +835,19 @@
         <v>1081928</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1068070</v>
+        <v>1066970</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1094074</v>
+        <v>1093049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9681938995311814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.955792823121103</v>
+        <v>0.9548090220630145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.97906333623846</v>
+        <v>0.9781460867973406</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1948</v>
@@ -856,19 +856,19 @@
         <v>2097639</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2078858</v>
+        <v>2078841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2110650</v>
+        <v>2113755</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9704981187692284</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9618085033204929</v>
+        <v>0.9618007269684807</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9765175893937789</v>
+        <v>0.9779541013749266</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>20135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12434</v>
+        <v>12369</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31646</v>
+        <v>31184</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02060768140967681</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01272554352569813</v>
+        <v>0.01265881979081213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03238834448860846</v>
+        <v>0.03191615617012642</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -981,19 +981,19 @@
         <v>25107</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16214</v>
+        <v>16907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37023</v>
+        <v>37269</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02298491021350733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01484379295048261</v>
+        <v>0.01547752345248415</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03389350785119447</v>
+        <v>0.03411845619502771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -1002,19 +1002,19 @@
         <v>45242</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33854</v>
+        <v>31169</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62222</v>
+        <v>59945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02186249506292782</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01635911740961471</v>
+        <v>0.01506207101762957</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03006748410761129</v>
+        <v>0.02896757116405403</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>956938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>945427</v>
+        <v>945889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964639</v>
+        <v>964704</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9793923185903232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9676116555113917</v>
+        <v>0.9680838438298737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9872744564743019</v>
+        <v>0.9873411802091879</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>995</v>
@@ -1052,19 +1052,19 @@
         <v>1067220</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1055304</v>
+        <v>1055058</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1076113</v>
+        <v>1075420</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9770150897864927</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9661064921488055</v>
+        <v>0.965881543804972</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9851562070495172</v>
+        <v>0.9845224765475158</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1900</v>
@@ -1073,19 +1073,19 @@
         <v>2024158</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2007178</v>
+        <v>2009455</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2035546</v>
+        <v>2038231</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9781375049370722</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9699325158923887</v>
+        <v>0.971032428835946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9836408825903853</v>
+        <v>0.9849379289823704</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>11202</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5516</v>
+        <v>5986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19816</v>
+        <v>18827</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01265603437369295</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006231610096413829</v>
+        <v>0.00676311618205451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02238834383971791</v>
+        <v>0.02127073731992757</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1198,19 +1198,19 @@
         <v>23685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14851</v>
+        <v>15434</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37326</v>
+        <v>36510</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02704344007757969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01695702442196241</v>
+        <v>0.01762270990054172</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04261988877957217</v>
+        <v>0.04168752582717086</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1219,19 +1219,19 @@
         <v>34887</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24070</v>
+        <v>23800</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49980</v>
+        <v>48994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01981166575758294</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01366919847513801</v>
+        <v>0.0135155498891076</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02838289668779128</v>
+        <v>0.02782309185578166</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>873913</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>865299</v>
+        <v>866288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>879599</v>
+        <v>879129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9873439656263071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9776116561602816</v>
+        <v>0.9787292626800718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9937683899035854</v>
+        <v>0.9932368838179455</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>801</v>
@@ -1269,19 +1269,19 @@
         <v>852111</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>838470</v>
+        <v>839286</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>860945</v>
+        <v>860362</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9729565599224202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9573801112204279</v>
+        <v>0.9583124741728292</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9830429755780375</v>
+        <v>0.9823772900994582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1620</v>
@@ -1290,19 +1290,19 @@
         <v>1726024</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1710931</v>
+        <v>1711917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1736841</v>
+        <v>1737111</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.980188334242417</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9716171033122087</v>
+        <v>0.9721769081442183</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.986330801524862</v>
+        <v>0.986484450110892</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>5861</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2032</v>
+        <v>1963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12929</v>
+        <v>11673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01165104027173191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004038831060651279</v>
+        <v>0.003901810587643152</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02570208940580113</v>
+        <v>0.02320634905181643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1415,19 +1415,19 @@
         <v>11846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6759</v>
+        <v>6592</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19992</v>
+        <v>20550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02616638921203049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01492992974537326</v>
+        <v>0.01456117784786118</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04415723215350024</v>
+        <v>0.04539068701104343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1436,19 +1436,19 @@
         <v>17707</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10841</v>
+        <v>11004</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26472</v>
+        <v>27951</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01852685327897159</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01134300075724172</v>
+        <v>0.01151383564951578</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0276971127101296</v>
+        <v>0.02924501529715283</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>497162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>490094</v>
+        <v>491350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500991</v>
+        <v>501060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9883489597282681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9742979105941988</v>
+        <v>0.9767936509481835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9959611689393487</v>
+        <v>0.9960981894123568</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>400</v>
@@ -1486,19 +1486,19 @@
         <v>440890</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>432744</v>
+        <v>432186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>445977</v>
+        <v>446144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9738336107879695</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9558427678464994</v>
+        <v>0.9546093129889565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9850700702546267</v>
+        <v>0.9854388221521387</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>855</v>
@@ -1507,19 +1507,19 @@
         <v>938051</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>929286</v>
+        <v>927807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>944917</v>
+        <v>944754</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9814731467210284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9723028872898699</v>
+        <v>0.9707549847028465</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9886569992427582</v>
+        <v>0.9884861643504841</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>65421</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50598</v>
+        <v>49069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82513</v>
+        <v>81356</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01918989270038912</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01484188072071137</v>
+        <v>0.01439346677557351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02420337394028268</v>
+        <v>0.02386404334005517</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -1632,19 +1632,19 @@
         <v>96180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76681</v>
+        <v>75143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>119350</v>
+        <v>117524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02718243692019434</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02167164833154758</v>
+        <v>0.02123688243771033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03373065707522612</v>
+        <v>0.03321444085326936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>151</v>
@@ -1653,19 +1653,19 @@
         <v>161602</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>138760</v>
+        <v>135161</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188831</v>
+        <v>187158</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02326047252305007</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01997266345962492</v>
+        <v>0.01945466119992537</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02717975899713575</v>
+        <v>0.02693903808541753</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3343724</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3326632</v>
+        <v>3327789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3358547</v>
+        <v>3360076</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9808101072996108</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9757966260597175</v>
+        <v>0.9761359566599448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9851581192792886</v>
+        <v>0.9856065332244265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3193</v>
@@ -1703,19 +1703,19 @@
         <v>3442148</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3418978</v>
+        <v>3420804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3461647</v>
+        <v>3463185</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9728175630798057</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.966269342924774</v>
+        <v>0.9667855591467305</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9783283516684524</v>
+        <v>0.9787631175622897</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6323</v>
@@ -1724,19 +1724,19 @@
         <v>6785872</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6758643</v>
+        <v>6760316</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6808714</v>
+        <v>6812313</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9767395274769499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9728202410028642</v>
+        <v>0.9730609619145825</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9800273365403751</v>
+        <v>0.9805453388000746</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>29806</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20420</v>
+        <v>20708</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42873</v>
+        <v>41712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02642423960761978</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01810248815202992</v>
+        <v>0.01835804214533256</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03800850097819872</v>
+        <v>0.03697920391312269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -2089,19 +2089,19 @@
         <v>59696</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45566</v>
+        <v>46767</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77699</v>
+        <v>79051</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04739435847286085</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03617632480904175</v>
+        <v>0.0371294179318979</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06168699038535715</v>
+        <v>0.06276049629351071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -2110,19 +2110,19 @@
         <v>89503</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70979</v>
+        <v>72357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110290</v>
+        <v>109584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03748706575147846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02972850002638087</v>
+        <v>0.03030574681117093</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0461936389767428</v>
+        <v>0.0458977586338241</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1098191</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1085124</v>
+        <v>1086285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1107577</v>
+        <v>1107289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9735757603923803</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9619914990218013</v>
+        <v>0.9630207960868775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.98189751184797</v>
+        <v>0.9816419578546676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1135</v>
@@ -2160,19 +2160,19 @@
         <v>1199865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1181862</v>
+        <v>1180510</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1213995</v>
+        <v>1212794</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9526056415271391</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9383130096146427</v>
+        <v>0.9372395037064891</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9638236751909582</v>
+        <v>0.9628705820681019</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2172</v>
@@ -2181,19 +2181,19 @@
         <v>2298055</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2277268</v>
+        <v>2277974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2316579</v>
+        <v>2315201</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9625129342485216</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9538063610232573</v>
+        <v>0.9541022413661776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9702714999736199</v>
+        <v>0.9696942531888292</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>18280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11268</v>
+        <v>11182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28486</v>
+        <v>27777</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02011408757656668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01239873982597547</v>
+        <v>0.01230348930045545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03134398822600798</v>
+        <v>0.03056340682697498</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -2306,19 +2306,19 @@
         <v>43407</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31352</v>
+        <v>31848</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59226</v>
+        <v>57130</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04312811974718132</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03115020276187037</v>
+        <v>0.03164269224983608</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05884547300300402</v>
+        <v>0.05676285122208099</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -2327,19 +2327,19 @@
         <v>61688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46678</v>
+        <v>48132</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77807</v>
+        <v>78177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03220778252901874</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0243712465773078</v>
+        <v>0.0251300796525858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04062403689016202</v>
+        <v>0.04081736240819903</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>890545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>880339</v>
+        <v>881048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>897557</v>
+        <v>897643</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9798859124234334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9686560117739921</v>
+        <v>0.9694365931730251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9876012601740246</v>
+        <v>0.9876965106995446</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>909</v>
@@ -2377,19 +2377,19 @@
         <v>963068</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>947249</v>
+        <v>949345</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>975123</v>
+        <v>974627</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9568718802528187</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9411545269969959</v>
+        <v>0.943237148777919</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9688497972381296</v>
+        <v>0.9683573077501638</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1771</v>
@@ -2398,19 +2398,19 @@
         <v>1853612</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1837493</v>
+        <v>1837123</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1868622</v>
+        <v>1867168</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9677922174709812</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9593759631098381</v>
+        <v>0.959182637591801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9756287534226922</v>
+        <v>0.9748699203474143</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>19335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11836</v>
+        <v>11543</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29899</v>
+        <v>32391</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02347165445450487</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01436791180607099</v>
+        <v>0.01401293184927812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0362959869483504</v>
+        <v>0.03932052612972846</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -2523,19 +2523,19 @@
         <v>22824</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15241</v>
+        <v>14616</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33252</v>
+        <v>32806</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02960103558501752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01976671828410624</v>
+        <v>0.01895516875006748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04312446853221068</v>
+        <v>0.04254633874904255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -2544,19 +2544,19 @@
         <v>42159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30336</v>
+        <v>30965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57352</v>
+        <v>57207</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02643507263466078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01902162518789426</v>
+        <v>0.01941574596051376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03596134990702567</v>
+        <v>0.03587051922072599</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>804424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>793860</v>
+        <v>791368</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>811923</v>
+        <v>812216</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9765283455454952</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9637040130516495</v>
+        <v>0.9606794738702714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985632088193929</v>
+        <v>0.9859870681507217</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>706</v>
@@ -2594,19 +2594,19 @@
         <v>748235</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>737807</v>
+        <v>738253</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>755818</v>
+        <v>756443</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9703989644149825</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9568755314677889</v>
+        <v>0.9574536612509573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9802332817158935</v>
+        <v>0.9810448312499325</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1475</v>
@@ -2615,19 +2615,19 @@
         <v>1552659</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1537466</v>
+        <v>1537611</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1564482</v>
+        <v>1563853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9735649273653392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9640386500929743</v>
+        <v>0.9641294807792741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9809783748121058</v>
+        <v>0.9805842540394862</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>17677</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10723</v>
+        <v>10618</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28030</v>
+        <v>28467</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03488742964537924</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02116311361071802</v>
+        <v>0.02095526983438022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05531946751118915</v>
+        <v>0.05618192207589381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -2740,19 +2740,19 @@
         <v>13142</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7361</v>
+        <v>7236</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21778</v>
+        <v>22016</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02683698466560016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01503071523899679</v>
+        <v>0.01477674288585244</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04447145150544748</v>
+        <v>0.04495745896926148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -2761,19 +2761,19 @@
         <v>30819</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20789</v>
+        <v>21508</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43931</v>
+        <v>42951</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03093089680890893</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02086366958449152</v>
+        <v>0.02158527712391092</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0440902132840244</v>
+        <v>0.04310670455836884</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>489024</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>478671</v>
+        <v>478234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>495978</v>
+        <v>496083</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9651125703546207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9446805324888108</v>
+        <v>0.9438180779241068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9788368863892819</v>
+        <v>0.9790447301656199</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>442</v>
@@ -2811,19 +2811,19 @@
         <v>476556</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>467920</v>
+        <v>467682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>482337</v>
+        <v>482462</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9731630153343999</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9555285484945525</v>
+        <v>0.9550425410307384</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9849692847610032</v>
+        <v>0.9852232571141475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>896</v>
@@ -2832,19 +2832,19 @@
         <v>965579</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>952467</v>
+        <v>953447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>975609</v>
+        <v>974890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9690691031910911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9559097867159754</v>
+        <v>0.9568932954416313</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9791363304155084</v>
+        <v>0.9784147228760891</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>85099</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67869</v>
+        <v>68908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104673</v>
+        <v>105714</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02527235031082855</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02015552672028559</v>
+        <v>0.02046402397470483</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03108532400492589</v>
+        <v>0.03139437374356172</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>130</v>
@@ -2957,19 +2957,19 @@
         <v>139070</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116639</v>
+        <v>116474</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>166173</v>
+        <v>166424</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03943231984902035</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03307230987744835</v>
+        <v>0.03302556033306165</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04711731134489216</v>
+        <v>0.04718851794485705</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>213</v>
@@ -2978,19 +2978,19 @@
         <v>224169</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>195561</v>
+        <v>193788</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>255626</v>
+        <v>254465</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03251614663942819</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02836648997699078</v>
+        <v>0.02810937226026683</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03707911122987238</v>
+        <v>0.0369107096828233</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3282183</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3262609</v>
+        <v>3261568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3299413</v>
+        <v>3298374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9747276496891715</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9689146759950741</v>
+        <v>0.9686056262564383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9798444732797144</v>
+        <v>0.9795359760252952</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3192</v>
@@ -3028,19 +3028,19 @@
         <v>3387722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3360619</v>
+        <v>3360368</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3410153</v>
+        <v>3410318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9605676801509796</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9528826886551074</v>
+        <v>0.9528114820551429</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9669276901225516</v>
+        <v>0.9669744396669383</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6314</v>
@@ -3049,19 +3049,19 @@
         <v>6669906</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6638449</v>
+        <v>6639610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6698514</v>
+        <v>6700287</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9674838533605719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9629208887701277</v>
+        <v>0.9630892903171765</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9716335100230094</v>
+        <v>0.971890627739733</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>28480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18731</v>
+        <v>19304</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40078</v>
+        <v>41169</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05736464033525467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03772781280623001</v>
+        <v>0.03888233453035705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08072531174834617</v>
+        <v>0.08292356716175116</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -3414,19 +3414,19 @@
         <v>52738</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42105</v>
+        <v>41764</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64026</v>
+        <v>66147</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08457325396625889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06752216491358461</v>
+        <v>0.06697408724652988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1026745548330095</v>
+        <v>0.1060764008869474</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -3435,19 +3435,19 @@
         <v>81218</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67505</v>
+        <v>67092</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97733</v>
+        <v>98510</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07251281363095846</v>
+        <v>0.07251281363095848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06026953848567741</v>
+        <v>0.05990078948292389</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08725731375733257</v>
+        <v>0.08795079440985114</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>467993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>456395</v>
+        <v>455304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>477742</v>
+        <v>477169</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9426353596647453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9192746882516538</v>
+        <v>0.9170764328382488</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9622721871937698</v>
+        <v>0.9611176654696428</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>783</v>
@@ -3485,19 +3485,19 @@
         <v>570842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>559554</v>
+        <v>557433</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>581475</v>
+        <v>581816</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9154267460337411</v>
+        <v>0.9154267460337409</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8973254451669905</v>
+        <v>0.8939235991130526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9324778350864152</v>
+        <v>0.9330259127534701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1206</v>
@@ -3506,19 +3506,19 @@
         <v>1038835</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1022320</v>
+        <v>1021543</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1052548</v>
+        <v>1052961</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9274871863690415</v>
+        <v>0.9274871863690414</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9127426862426675</v>
+        <v>0.9120492055901487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9397304615143227</v>
+        <v>0.9400992105170761</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>36168</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25910</v>
+        <v>25294</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51418</v>
+        <v>51321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03770862292944976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02701397525228616</v>
+        <v>0.02637155927975872</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05360816962807387</v>
+        <v>0.05350716035817953</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -3631,19 +3631,19 @@
         <v>43558</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33328</v>
+        <v>33169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57401</v>
+        <v>56194</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.039077924679981</v>
+        <v>0.03907792467998099</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02990083940465605</v>
+        <v>0.02975780663845277</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05149793538858224</v>
+        <v>0.05041440083952135</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>100</v>
@@ -3652,19 +3652,19 @@
         <v>79726</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65591</v>
+        <v>63925</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100154</v>
+        <v>98363</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03844460665842811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0316289463139476</v>
+        <v>0.03082513895276459</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04829541209450069</v>
+        <v>0.04743185256320089</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>922979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>907729</v>
+        <v>907826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>933237</v>
+        <v>933853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9622913770705502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9463918303719271</v>
+        <v>0.9464928396418203</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9729860247477141</v>
+        <v>0.9736284407202412</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1541</v>
@@ -3702,19 +3702,19 @@
         <v>1071074</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1057231</v>
+        <v>1058438</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1081304</v>
+        <v>1081463</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9609220753200192</v>
+        <v>0.9609220753200189</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9485020646114176</v>
+        <v>0.9495855991604784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.970099160595344</v>
+        <v>0.970242193361547</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2414</v>
@@ -3723,19 +3723,19 @@
         <v>1994053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1973625</v>
+        <v>1975416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2008188</v>
+        <v>2009854</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9615553933415719</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9517045879054988</v>
+        <v>0.9525681474367987</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9683710536860523</v>
+        <v>0.9691748610472353</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>35776</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24280</v>
+        <v>24065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51676</v>
+        <v>51478</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03418681487109491</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02320119053364787</v>
+        <v>0.02299620644367206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04938067609012251</v>
+        <v>0.04919130149716409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -3848,19 +3848,19 @@
         <v>48166</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37659</v>
+        <v>37914</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60527</v>
+        <v>60294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04606190842958892</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03601370487690146</v>
+        <v>0.03625718032973907</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05788275133424729</v>
+        <v>0.05765972463961845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -3869,19 +3869,19 @@
         <v>83942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67919</v>
+        <v>69291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103009</v>
+        <v>103581</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04012211961928202</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03246326316494239</v>
+        <v>0.03311944230856638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04923574751996396</v>
+        <v>0.04950888870947524</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>1010703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>994803</v>
+        <v>995001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1022199</v>
+        <v>1022414</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9658131851289052</v>
+        <v>0.9658131851289051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9506193239098775</v>
+        <v>0.9508086985028358</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.976798809466352</v>
+        <v>0.9770037935563279</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1440</v>
@@ -3919,19 +3919,19 @@
         <v>997523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>985162</v>
+        <v>985395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1008030</v>
+        <v>1007775</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9539380915704111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9421172486657524</v>
+        <v>0.9423402753603815</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9639862951230984</v>
+        <v>0.9637428196702608</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2438</v>
@@ -3940,19 +3940,19 @@
         <v>2008226</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1989159</v>
+        <v>1988587</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2024249</v>
+        <v>2022877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.959877880380718</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.950764252480036</v>
+        <v>0.950491111290525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9675367368350573</v>
+        <v>0.9668805576914337</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>35457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20982</v>
+        <v>22385</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55363</v>
+        <v>57473</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03633181309089346</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02149956888717934</v>
+        <v>0.02293692118741072</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.056728488152251</v>
+        <v>0.05889071637383363</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -4065,19 +4065,19 @@
         <v>33234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25280</v>
+        <v>25128</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42996</v>
+        <v>42951</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03662597557757147</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0278599938268993</v>
+        <v>0.02769271413984928</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04738354827008445</v>
+        <v>0.04733428450189428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -4086,19 +4086,19 @@
         <v>68692</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50507</v>
+        <v>52615</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90330</v>
+        <v>92694</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0364735420828027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02681778496140216</v>
+        <v>0.02793711882996293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04796324267943202</v>
+        <v>0.04921804833946795</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>940472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920566</v>
+        <v>918456</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>954947</v>
+        <v>953544</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9636681869091065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9432715118477497</v>
+        <v>0.9411092836261662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9785004311128209</v>
+        <v>0.9770630788125894</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1266</v>
@@ -4136,19 +4136,19 @@
         <v>874161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>864399</v>
+        <v>864444</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>882115</v>
+        <v>882267</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9633740244224288</v>
+        <v>0.9633740244224285</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9526164517299156</v>
+        <v>0.9526657154981056</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9721400061731007</v>
+        <v>0.9723072858601508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2191</v>
@@ -4157,19 +4157,19 @@
         <v>1814633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1792995</v>
+        <v>1790631</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1832818</v>
+        <v>1830710</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9635264579171974</v>
+        <v>0.9635264579171972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9520367573205681</v>
+        <v>0.9507819516605328</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9731822150385981</v>
+        <v>0.9720628811700371</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>135881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110600</v>
+        <v>111872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167575</v>
+        <v>166358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03906844699877526</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03179974540823235</v>
+        <v>0.0321654118768611</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04818104938892567</v>
+        <v>0.04783116695909002</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>267</v>
@@ -4282,19 +4282,19 @@
         <v>177696</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>157823</v>
+        <v>156628</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202654</v>
+        <v>200760</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04813928725289802</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04275532343024527</v>
+        <v>0.04243182470038875</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05490047255936082</v>
+        <v>0.05438727772503524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>386</v>
@@ -4303,19 +4303,19 @@
         <v>313578</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>281180</v>
+        <v>277354</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>350467</v>
+        <v>351042</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04373878424214521</v>
+        <v>0.0437387842421452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03921981533510169</v>
+        <v>0.03868624706052023</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04888423850114382</v>
+        <v>0.04896441293789251</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3342147</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3310453</v>
+        <v>3311670</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3367428</v>
+        <v>3366156</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9609315530012247</v>
+        <v>0.9609315530012249</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.951818950611074</v>
+        <v>0.95216883304091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9682002545917676</v>
+        <v>0.9678345881231389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5030</v>
@@ -4353,19 +4353,19 @@
         <v>3513601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3488643</v>
+        <v>3490537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3533474</v>
+        <v>3534669</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9518607127471017</v>
+        <v>0.951860712747102</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9450995274406391</v>
+        <v>0.9456127222749657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9572446765697544</v>
+        <v>0.9575681752996115</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8249</v>
@@ -4374,19 +4374,19 @@
         <v>6855747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6818858</v>
+        <v>6818283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6888145</v>
+        <v>6891971</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9562612157578549</v>
+        <v>0.9562612157578546</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9511157614988561</v>
+        <v>0.9510355870621076</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9607801846648986</v>
+        <v>0.96131375293948</v>
       </c>
     </row>
     <row r="18">
